--- a/PRE_COMPLETED_240711.xlsx
+++ b/PRE_COMPLETED_240711.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SCALE Skills Gap Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A72BB99-FD7E-448F-B8DD-4663282C43A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E954AD94-1C3F-40F9-AB0D-03524D3858FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16095" yWindow="0" windowWidth="12810" windowHeight="15585" xr2:uid="{F53C505B-FBAC-4F63-BBBE-A7950FD9EED9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F53C505B-FBAC-4F63-BBBE-A7950FD9EED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="1312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="1313">
   <si>
     <t>Record ID</t>
   </si>
@@ -3989,12 +3989,6 @@
     <t>History and Linguistics</t>
   </si>
   <si>
-    <t>College of Computing and Data Science</t>
-  </si>
-  <si>
-    <t>College of Humanities, Arts and Social Sciences</t>
-  </si>
-  <si>
     <t>Business/finance</t>
   </si>
   <si>
@@ -4005,6 +3999,15 @@
   </si>
   <si>
     <t>Computing</t>
+  </si>
+  <si>
+    <t>College of Humanities, Arts and Social Sciences (COHASS)</t>
+  </si>
+  <si>
+    <t>College of Computing and Data Science (CCDS)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -4523,7 +4526,7 @@
   <dimension ref="A1:AZ145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2:AW145"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4708,6 +4711,9 @@
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B2" t="s">
+        <v>1312</v>
+      </c>
       <c r="C2" t="s">
         <v>1302</v>
       </c>
@@ -4858,6 +4864,9 @@
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
       <c r="C3" t="s">
         <v>1302</v>
       </c>
@@ -5005,6 +5014,9 @@
       <c r="A4" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B4" t="s">
+        <v>1312</v>
+      </c>
       <c r="C4" t="s">
         <v>1303</v>
       </c>
@@ -5152,6 +5164,9 @@
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B5" t="s">
+        <v>1312</v>
+      </c>
       <c r="C5" t="s">
         <v>1302</v>
       </c>
@@ -5299,6 +5314,9 @@
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B6" t="s">
+        <v>287</v>
+      </c>
       <c r="C6" t="s">
         <v>1302</v>
       </c>
@@ -5446,6 +5464,9 @@
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
       <c r="C7" t="s">
         <v>1303</v>
       </c>
@@ -5595,6 +5616,9 @@
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B8" t="s">
+        <v>1312</v>
+      </c>
       <c r="C8" t="s">
         <v>1302</v>
       </c>
@@ -5744,6 +5768,9 @@
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B9" t="s">
+        <v>287</v>
+      </c>
       <c r="C9" t="s">
         <v>1302</v>
       </c>
@@ -5891,11 +5918,14 @@
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B10" t="s">
+        <v>287</v>
+      </c>
       <c r="C10" t="s">
         <v>1303</v>
       </c>
       <c r="D10" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E10" t="s">
         <v>1262</v>
@@ -6038,6 +6068,9 @@
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B11" t="s">
+        <v>287</v>
+      </c>
       <c r="C11" t="s">
         <v>1302</v>
       </c>
@@ -6187,6 +6220,9 @@
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
       <c r="C12" t="s">
         <v>1302</v>
       </c>
@@ -6334,6 +6370,9 @@
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B13" t="s">
+        <v>287</v>
+      </c>
       <c r="C13" t="s">
         <v>1302</v>
       </c>
@@ -6483,6 +6522,9 @@
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B14" t="s">
+        <v>287</v>
+      </c>
       <c r="C14" t="s">
         <v>1302</v>
       </c>
@@ -6630,6 +6672,9 @@
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B15" t="s">
+        <v>287</v>
+      </c>
       <c r="C15" t="s">
         <v>1303</v>
       </c>
@@ -6777,6 +6822,9 @@
       <c r="A16" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B16" t="s">
+        <v>287</v>
+      </c>
       <c r="C16" t="s">
         <v>1303</v>
       </c>
@@ -6924,6 +6972,9 @@
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B17" t="s">
+        <v>287</v>
+      </c>
       <c r="C17" t="s">
         <v>1303</v>
       </c>
@@ -7071,11 +7122,14 @@
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B18" t="s">
+        <v>287</v>
+      </c>
       <c r="C18" t="s">
         <v>1303</v>
       </c>
       <c r="D18" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E18" t="s">
         <v>1262</v>
@@ -7218,6 +7272,9 @@
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="B19" t="s">
+        <v>1312</v>
+      </c>
       <c r="C19" t="s">
         <v>1302</v>
       </c>
@@ -7367,6 +7424,9 @@
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="B20" t="s">
+        <v>287</v>
+      </c>
       <c r="C20" t="s">
         <v>1303</v>
       </c>
@@ -7514,11 +7574,14 @@
       <c r="A21" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B21" t="s">
+        <v>1312</v>
+      </c>
       <c r="C21" t="s">
         <v>1303</v>
       </c>
       <c r="D21" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E21" t="s">
         <v>1262</v>
@@ -7661,6 +7724,9 @@
       <c r="A22" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="B22" t="s">
+        <v>1312</v>
+      </c>
       <c r="C22" t="s">
         <v>1303</v>
       </c>
@@ -7808,6 +7874,9 @@
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="B23" t="s">
+        <v>287</v>
+      </c>
       <c r="C23" t="s">
         <v>1303</v>
       </c>
@@ -7955,6 +8024,9 @@
       <c r="A24" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="B24" t="s">
+        <v>1312</v>
+      </c>
       <c r="C24" t="s">
         <v>1303</v>
       </c>
@@ -8102,6 +8174,9 @@
       <c r="A25" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="B25" t="s">
+        <v>287</v>
+      </c>
       <c r="C25" t="s">
         <v>1303</v>
       </c>
@@ -8249,6 +8324,9 @@
       <c r="A26" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="B26" t="s">
+        <v>287</v>
+      </c>
       <c r="C26" t="s">
         <v>1303</v>
       </c>
@@ -8396,6 +8474,9 @@
       <c r="A27" s="2" t="s">
         <v>329</v>
       </c>
+      <c r="B27" t="s">
+        <v>287</v>
+      </c>
       <c r="C27" t="s">
         <v>1303</v>
       </c>
@@ -8543,6 +8624,9 @@
       <c r="A28" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="B28" t="s">
+        <v>287</v>
+      </c>
       <c r="C28" t="s">
         <v>1303</v>
       </c>
@@ -8690,6 +8774,9 @@
       <c r="A29" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="B29" t="s">
+        <v>1312</v>
+      </c>
       <c r="C29" t="s">
         <v>1303</v>
       </c>
@@ -8839,6 +8926,9 @@
       <c r="A30" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="B30" t="s">
+        <v>1312</v>
+      </c>
       <c r="C30" t="s">
         <v>1303</v>
       </c>
@@ -8986,6 +9076,9 @@
       <c r="A31" s="2" t="s">
         <v>333</v>
       </c>
+      <c r="B31" t="s">
+        <v>1312</v>
+      </c>
       <c r="C31" t="s">
         <v>1303</v>
       </c>
@@ -9133,6 +9226,9 @@
       <c r="A32" s="2" t="s">
         <v>334</v>
       </c>
+      <c r="B32" t="s">
+        <v>1312</v>
+      </c>
       <c r="C32" t="s">
         <v>1303</v>
       </c>
@@ -9282,11 +9378,14 @@
       <c r="A33" s="2" t="s">
         <v>335</v>
       </c>
+      <c r="B33" t="s">
+        <v>1312</v>
+      </c>
       <c r="C33" t="s">
         <v>1303</v>
       </c>
       <c r="D33" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E33" t="s">
         <v>1262</v>
@@ -9431,6 +9530,9 @@
       <c r="A34" s="2" t="s">
         <v>336</v>
       </c>
+      <c r="B34" t="s">
+        <v>287</v>
+      </c>
       <c r="C34" t="s">
         <v>1303</v>
       </c>
@@ -9580,6 +9682,9 @@
       <c r="A35" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="B35" t="s">
+        <v>1312</v>
+      </c>
       <c r="C35" t="s">
         <v>1303</v>
       </c>
@@ -9727,6 +9832,9 @@
       <c r="A36" s="2" t="s">
         <v>338</v>
       </c>
+      <c r="B36" t="s">
+        <v>287</v>
+      </c>
       <c r="C36" t="s">
         <v>1303</v>
       </c>
@@ -9874,6 +9982,9 @@
       <c r="A37" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="B37" t="s">
+        <v>287</v>
+      </c>
       <c r="C37" t="s">
         <v>1303</v>
       </c>
@@ -10023,11 +10134,14 @@
       <c r="A38" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="B38" t="s">
+        <v>1312</v>
+      </c>
       <c r="C38" t="s">
         <v>1303</v>
       </c>
       <c r="D38" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E38" t="s">
         <v>1262</v>
@@ -10170,11 +10284,14 @@
       <c r="A39" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="B39" t="s">
+        <v>287</v>
+      </c>
       <c r="C39" t="s">
         <v>1303</v>
       </c>
       <c r="D39" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E39" t="s">
         <v>1262</v>
@@ -10317,11 +10434,14 @@
       <c r="A40" s="2" t="s">
         <v>342</v>
       </c>
+      <c r="B40" t="s">
+        <v>287</v>
+      </c>
       <c r="C40" t="s">
         <v>1303</v>
       </c>
       <c r="D40" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E40" t="s">
         <v>1262</v>
@@ -10464,11 +10584,14 @@
       <c r="A41" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="B41" t="s">
+        <v>287</v>
+      </c>
       <c r="C41" t="s">
         <v>1303</v>
       </c>
       <c r="D41" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E41" t="s">
         <v>1262</v>
@@ -10611,6 +10734,9 @@
       <c r="A42" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="B42" t="s">
+        <v>287</v>
+      </c>
       <c r="C42" t="s">
         <v>1303</v>
       </c>
@@ -10761,11 +10887,14 @@
       <c r="A43" s="2" t="s">
         <v>484</v>
       </c>
+      <c r="B43" t="s">
+        <v>1312</v>
+      </c>
       <c r="C43" t="s">
         <v>1303</v>
       </c>
       <c r="D43" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E43" t="s">
         <v>1262</v>
@@ -10908,6 +11037,9 @@
       <c r="A44" s="2" t="s">
         <v>485</v>
       </c>
+      <c r="B44" t="s">
+        <v>287</v>
+      </c>
       <c r="C44" t="s">
         <v>1303</v>
       </c>
@@ -11055,11 +11187,14 @@
       <c r="A45" s="2" t="s">
         <v>486</v>
       </c>
+      <c r="B45" t="s">
+        <v>287</v>
+      </c>
       <c r="C45" t="s">
         <v>1303</v>
       </c>
       <c r="D45" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E45" t="s">
         <v>1262</v>
@@ -11202,11 +11337,14 @@
       <c r="A46" s="2" t="s">
         <v>487</v>
       </c>
+      <c r="B46" t="s">
+        <v>287</v>
+      </c>
       <c r="C46" t="s">
         <v>1303</v>
       </c>
       <c r="D46" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E46" t="s">
         <v>1262</v>
@@ -11351,11 +11489,14 @@
       <c r="A47" s="2" t="s">
         <v>488</v>
       </c>
+      <c r="B47" t="s">
+        <v>287</v>
+      </c>
       <c r="C47" t="s">
         <v>1303</v>
       </c>
       <c r="D47" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E47" t="s">
         <v>1262</v>
@@ -11498,6 +11639,9 @@
       <c r="A48" s="2" t="s">
         <v>489</v>
       </c>
+      <c r="B48" t="s">
+        <v>287</v>
+      </c>
       <c r="C48" t="s">
         <v>1303</v>
       </c>
@@ -11645,6 +11789,9 @@
       <c r="A49" s="2" t="s">
         <v>490</v>
       </c>
+      <c r="B49" t="s">
+        <v>287</v>
+      </c>
       <c r="C49" t="s">
         <v>1303</v>
       </c>
@@ -11792,6 +11939,9 @@
       <c r="A50" s="2" t="s">
         <v>491</v>
       </c>
+      <c r="B50" t="s">
+        <v>287</v>
+      </c>
       <c r="C50" t="s">
         <v>1303</v>
       </c>
@@ -11939,6 +12089,9 @@
       <c r="A51" s="2" t="s">
         <v>492</v>
       </c>
+      <c r="B51" t="s">
+        <v>287</v>
+      </c>
       <c r="C51" t="s">
         <v>1303</v>
       </c>
@@ -12086,11 +12239,14 @@
       <c r="A52" s="2" t="s">
         <v>493</v>
       </c>
+      <c r="B52" t="s">
+        <v>287</v>
+      </c>
       <c r="C52" t="s">
         <v>1303</v>
       </c>
       <c r="D52" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E52" t="s">
         <v>1262</v>
@@ -12233,6 +12389,9 @@
       <c r="A53" s="2" t="s">
         <v>494</v>
       </c>
+      <c r="B53" t="s">
+        <v>287</v>
+      </c>
       <c r="C53" t="s">
         <v>1303</v>
       </c>
@@ -12382,6 +12541,9 @@
       <c r="A54" s="2" t="s">
         <v>495</v>
       </c>
+      <c r="B54" t="s">
+        <v>287</v>
+      </c>
       <c r="C54" t="s">
         <v>1303</v>
       </c>
@@ -12531,6 +12693,9 @@
       <c r="A55" s="2" t="s">
         <v>496</v>
       </c>
+      <c r="B55" t="s">
+        <v>1312</v>
+      </c>
       <c r="C55" t="s">
         <v>1303</v>
       </c>
@@ -12680,6 +12845,9 @@
       <c r="A56" s="2" t="s">
         <v>497</v>
       </c>
+      <c r="B56" t="s">
+        <v>287</v>
+      </c>
       <c r="C56" t="s">
         <v>1303</v>
       </c>
@@ -12827,6 +12995,9 @@
       <c r="A57" s="2" t="s">
         <v>606</v>
       </c>
+      <c r="B57" t="s">
+        <v>1312</v>
+      </c>
       <c r="C57" t="s">
         <v>1303</v>
       </c>
@@ -12974,6 +13145,9 @@
       <c r="A58" s="2" t="s">
         <v>607</v>
       </c>
+      <c r="B58" t="s">
+        <v>1312</v>
+      </c>
       <c r="C58" t="s">
         <v>1303</v>
       </c>
@@ -13121,6 +13295,9 @@
       <c r="A59" s="2" t="s">
         <v>608</v>
       </c>
+      <c r="B59" t="s">
+        <v>1312</v>
+      </c>
       <c r="C59" t="s">
         <v>1303</v>
       </c>
@@ -13270,6 +13447,9 @@
       <c r="A60" s="2" t="s">
         <v>609</v>
       </c>
+      <c r="B60" t="s">
+        <v>287</v>
+      </c>
       <c r="C60" t="s">
         <v>1303</v>
       </c>
@@ -13417,6 +13597,9 @@
       <c r="A61" s="2" t="s">
         <v>610</v>
       </c>
+      <c r="B61" t="s">
+        <v>287</v>
+      </c>
       <c r="C61" t="s">
         <v>1303</v>
       </c>
@@ -13564,6 +13747,9 @@
       <c r="A62" s="2" t="s">
         <v>611</v>
       </c>
+      <c r="B62" t="s">
+        <v>287</v>
+      </c>
       <c r="C62" t="s">
         <v>1303</v>
       </c>
@@ -13711,6 +13897,9 @@
       <c r="A63" s="2" t="s">
         <v>612</v>
       </c>
+      <c r="B63" t="s">
+        <v>287</v>
+      </c>
       <c r="C63" t="s">
         <v>1303</v>
       </c>
@@ -13858,6 +14047,9 @@
       <c r="A64" s="2" t="s">
         <v>668</v>
       </c>
+      <c r="B64" t="s">
+        <v>287</v>
+      </c>
       <c r="C64" t="s">
         <v>1303</v>
       </c>
@@ -14008,6 +14200,9 @@
       <c r="A65" s="2" t="s">
         <v>669</v>
       </c>
+      <c r="B65" t="s">
+        <v>1312</v>
+      </c>
       <c r="C65" t="s">
         <v>1303</v>
       </c>
@@ -14155,11 +14350,14 @@
       <c r="A66" s="2" t="s">
         <v>670</v>
       </c>
+      <c r="B66" t="s">
+        <v>287</v>
+      </c>
       <c r="C66" t="s">
         <v>1303</v>
       </c>
       <c r="D66" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E66" t="s">
         <v>1262</v>
@@ -14302,6 +14500,9 @@
       <c r="A67" s="2" t="s">
         <v>671</v>
       </c>
+      <c r="B67" t="s">
+        <v>287</v>
+      </c>
       <c r="C67" t="s">
         <v>1303</v>
       </c>
@@ -14449,6 +14650,9 @@
       <c r="A68" s="2" t="s">
         <v>672</v>
       </c>
+      <c r="B68" t="s">
+        <v>287</v>
+      </c>
       <c r="C68" t="s">
         <v>1303</v>
       </c>
@@ -14599,6 +14803,9 @@
       <c r="A69" s="2" t="s">
         <v>706</v>
       </c>
+      <c r="B69" t="s">
+        <v>287</v>
+      </c>
       <c r="C69" t="s">
         <v>1303</v>
       </c>
@@ -14748,6 +14955,9 @@
       <c r="A70" s="2" t="s">
         <v>707</v>
       </c>
+      <c r="B70" t="s">
+        <v>287</v>
+      </c>
       <c r="C70" t="s">
         <v>1303</v>
       </c>
@@ -14761,7 +14971,7 @@
         <v>1272</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -14897,6 +15107,9 @@
       <c r="A71" s="2" t="s">
         <v>708</v>
       </c>
+      <c r="B71" t="s">
+        <v>287</v>
+      </c>
       <c r="C71" t="s">
         <v>1303</v>
       </c>
@@ -15046,11 +15259,14 @@
       <c r="A72" s="2" t="s">
         <v>728</v>
       </c>
+      <c r="B72" t="s">
+        <v>287</v>
+      </c>
       <c r="C72" t="s">
         <v>1303</v>
       </c>
       <c r="D72" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E72" t="s">
         <v>1262</v>
@@ -15193,11 +15409,14 @@
       <c r="A73" s="2" t="s">
         <v>729</v>
       </c>
+      <c r="B73" t="s">
+        <v>1312</v>
+      </c>
       <c r="C73" t="s">
         <v>1303</v>
       </c>
       <c r="D73" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E73" t="s">
         <v>1262</v>
@@ -15345,11 +15564,14 @@
       <c r="A74" s="2" t="s">
         <v>730</v>
       </c>
+      <c r="B74" t="s">
+        <v>287</v>
+      </c>
       <c r="C74" t="s">
         <v>1303</v>
       </c>
       <c r="D74" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E74" t="s">
         <v>1262</v>
@@ -15358,7 +15580,7 @@
         <v>1266</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -15494,6 +15716,9 @@
       <c r="A75" s="2" t="s">
         <v>731</v>
       </c>
+      <c r="B75" t="s">
+        <v>287</v>
+      </c>
       <c r="C75" t="s">
         <v>1303</v>
       </c>
@@ -15641,11 +15866,14 @@
       <c r="A76" s="2" t="s">
         <v>732</v>
       </c>
+      <c r="B76" t="s">
+        <v>1312</v>
+      </c>
       <c r="C76" t="s">
         <v>1303</v>
       </c>
       <c r="D76" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E76" t="s">
         <v>1262</v>
@@ -15788,6 +16016,9 @@
       <c r="A77" s="2" t="s">
         <v>733</v>
       </c>
+      <c r="B77" t="s">
+        <v>287</v>
+      </c>
       <c r="C77" t="s">
         <v>1303</v>
       </c>
@@ -15935,6 +16166,9 @@
       <c r="A78" s="2" t="s">
         <v>734</v>
       </c>
+      <c r="B78" t="s">
+        <v>1312</v>
+      </c>
       <c r="C78" t="s">
         <v>1303</v>
       </c>
@@ -16085,6 +16319,9 @@
       <c r="A79" s="2" t="s">
         <v>735</v>
       </c>
+      <c r="B79" t="s">
+        <v>287</v>
+      </c>
       <c r="C79" t="s">
         <v>1303</v>
       </c>
@@ -16232,6 +16469,9 @@
       <c r="A80" s="2" t="s">
         <v>736</v>
       </c>
+      <c r="B80" t="s">
+        <v>287</v>
+      </c>
       <c r="C80" t="s">
         <v>1303</v>
       </c>
@@ -16381,6 +16621,9 @@
       <c r="A81" s="2" t="s">
         <v>737</v>
       </c>
+      <c r="B81" t="s">
+        <v>287</v>
+      </c>
       <c r="C81" t="s">
         <v>1303</v>
       </c>
@@ -16530,6 +16773,9 @@
       <c r="A82" s="2" t="s">
         <v>738</v>
       </c>
+      <c r="B82" t="s">
+        <v>1312</v>
+      </c>
       <c r="C82" t="s">
         <v>1303</v>
       </c>
@@ -16679,11 +16925,14 @@
       <c r="A83" s="2" t="s">
         <v>820</v>
       </c>
+      <c r="B83" t="s">
+        <v>287</v>
+      </c>
       <c r="C83" t="s">
         <v>1303</v>
       </c>
       <c r="D83" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E83" t="s">
         <v>1262</v>
@@ -16826,11 +17075,14 @@
       <c r="A84" s="2" t="s">
         <v>821</v>
       </c>
+      <c r="B84" t="s">
+        <v>1312</v>
+      </c>
       <c r="C84" t="s">
         <v>1303</v>
       </c>
       <c r="D84" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="E84" t="s">
         <v>1262</v>
@@ -16973,6 +17225,9 @@
       <c r="A85" s="2" t="s">
         <v>822</v>
       </c>
+      <c r="B85" t="s">
+        <v>287</v>
+      </c>
       <c r="C85" t="s">
         <v>1303</v>
       </c>
@@ -17120,6 +17375,9 @@
       <c r="A86" s="2" t="s">
         <v>823</v>
       </c>
+      <c r="B86" t="s">
+        <v>1312</v>
+      </c>
       <c r="C86" t="s">
         <v>1303</v>
       </c>
@@ -17267,11 +17525,14 @@
       <c r="A87" s="2" t="s">
         <v>824</v>
       </c>
+      <c r="B87" t="s">
+        <v>287</v>
+      </c>
       <c r="C87" t="s">
         <v>1302</v>
       </c>
       <c r="D87" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E87" t="s">
         <v>1285</v>
@@ -17280,7 +17541,7 @@
         <v>1305</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -17416,11 +17677,14 @@
       <c r="A88" s="2" t="s">
         <v>856</v>
       </c>
+      <c r="B88" t="s">
+        <v>287</v>
+      </c>
       <c r="C88" t="s">
         <v>1302</v>
       </c>
       <c r="D88" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E88" t="s">
         <v>1280</v>
@@ -17429,7 +17693,7 @@
         <v>1281</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -17565,11 +17829,14 @@
       <c r="A89" s="2" t="s">
         <v>857</v>
       </c>
+      <c r="B89" t="s">
+        <v>287</v>
+      </c>
       <c r="C89" t="s">
         <v>1302</v>
       </c>
       <c r="D89" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E89" t="s">
         <v>1280</v>
@@ -17712,11 +17979,14 @@
       <c r="A90" s="2" t="s">
         <v>858</v>
       </c>
+      <c r="B90" t="s">
+        <v>1312</v>
+      </c>
       <c r="C90" t="s">
         <v>1302</v>
       </c>
       <c r="D90" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E90" t="s">
         <v>1280</v>
@@ -17859,11 +18129,14 @@
       <c r="A91" s="2" t="s">
         <v>859</v>
       </c>
+      <c r="B91" t="s">
+        <v>287</v>
+      </c>
       <c r="C91" t="s">
         <v>1302</v>
       </c>
       <c r="D91" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E91" t="s">
         <v>1280</v>
@@ -18006,11 +18279,14 @@
       <c r="A92" s="2" t="s">
         <v>892</v>
       </c>
+      <c r="B92" t="s">
+        <v>287</v>
+      </c>
       <c r="C92" t="s">
         <v>1302</v>
       </c>
       <c r="D92" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E92" t="s">
         <v>1280</v>
@@ -18153,11 +18429,14 @@
       <c r="A93" s="2" t="s">
         <v>893</v>
       </c>
+      <c r="B93" t="s">
+        <v>287</v>
+      </c>
       <c r="C93" t="s">
         <v>1302</v>
       </c>
       <c r="D93" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E93" t="s">
         <v>1280</v>
@@ -18300,11 +18579,14 @@
       <c r="A94" s="2" t="s">
         <v>910</v>
       </c>
+      <c r="B94" t="s">
+        <v>1312</v>
+      </c>
       <c r="C94" t="s">
         <v>1302</v>
       </c>
       <c r="D94" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E94" t="s">
         <v>1285</v>
@@ -18447,11 +18729,14 @@
       <c r="A95" s="2" t="s">
         <v>911</v>
       </c>
+      <c r="B95" t="s">
+        <v>1312</v>
+      </c>
       <c r="C95" t="s">
         <v>1302</v>
       </c>
       <c r="D95" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E95" t="s">
         <v>1285</v>
@@ -18596,11 +18881,14 @@
       <c r="A96" s="2" t="s">
         <v>923</v>
       </c>
+      <c r="B96" t="s">
+        <v>287</v>
+      </c>
       <c r="C96" t="s">
         <v>1302</v>
       </c>
       <c r="D96" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E96" t="s">
         <v>1285</v>
@@ -18748,11 +19036,14 @@
       <c r="A97" s="2" t="s">
         <v>924</v>
       </c>
+      <c r="B97" t="s">
+        <v>287</v>
+      </c>
       <c r="C97" t="s">
         <v>1302</v>
       </c>
       <c r="D97" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E97" t="s">
         <v>1280</v>
@@ -18900,11 +19191,14 @@
       <c r="A98" s="2" t="s">
         <v>943</v>
       </c>
+      <c r="B98" t="s">
+        <v>287</v>
+      </c>
       <c r="C98" t="s">
         <v>1302</v>
       </c>
       <c r="D98" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E98" t="s">
         <v>1280</v>
@@ -19049,11 +19343,14 @@
       <c r="A99" s="2" t="s">
         <v>944</v>
       </c>
+      <c r="B99" t="s">
+        <v>1312</v>
+      </c>
       <c r="C99" t="s">
         <v>1302</v>
       </c>
       <c r="D99" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E99" t="s">
         <v>1285</v>
@@ -19198,11 +19495,14 @@
       <c r="A100" s="2" t="s">
         <v>945</v>
       </c>
+      <c r="B100" t="s">
+        <v>287</v>
+      </c>
       <c r="C100" t="s">
         <v>1302</v>
       </c>
       <c r="D100" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E100" t="s">
         <v>1280</v>
@@ -19347,11 +19647,14 @@
       <c r="A101" s="2" t="s">
         <v>946</v>
       </c>
+      <c r="B101" t="s">
+        <v>287</v>
+      </c>
       <c r="C101" t="s">
         <v>1302</v>
       </c>
       <c r="D101" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E101" t="s">
         <v>1280</v>
@@ -19494,11 +19797,14 @@
       <c r="A102" s="2" t="s">
         <v>947</v>
       </c>
+      <c r="B102" t="s">
+        <v>287</v>
+      </c>
       <c r="C102" t="s">
         <v>1302</v>
       </c>
       <c r="D102" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E102" t="s">
         <v>1280</v>
@@ -19641,11 +19947,14 @@
       <c r="A103" s="2" t="s">
         <v>948</v>
       </c>
+      <c r="B103" t="s">
+        <v>287</v>
+      </c>
       <c r="C103" t="s">
         <v>1302</v>
       </c>
       <c r="D103" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E103" t="s">
         <v>1285</v>
@@ -19790,11 +20099,14 @@
       <c r="A104" s="2" t="s">
         <v>949</v>
       </c>
+      <c r="B104" t="s">
+        <v>287</v>
+      </c>
       <c r="C104" t="s">
         <v>1302</v>
       </c>
       <c r="D104" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E104" t="s">
         <v>1285</v>
@@ -19939,11 +20251,14 @@
       <c r="A105" s="2" t="s">
         <v>950</v>
       </c>
+      <c r="B105" t="s">
+        <v>1312</v>
+      </c>
       <c r="C105" t="s">
         <v>1302</v>
       </c>
       <c r="D105" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E105" t="s">
         <v>1285</v>
@@ -20091,11 +20406,14 @@
       <c r="A106" s="2" t="s">
         <v>951</v>
       </c>
+      <c r="B106" t="s">
+        <v>287</v>
+      </c>
       <c r="C106" t="s">
         <v>1302</v>
       </c>
       <c r="D106" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E106" t="s">
         <v>1280</v>
@@ -20238,11 +20556,14 @@
       <c r="A107" s="2" t="s">
         <v>952</v>
       </c>
+      <c r="B107" t="s">
+        <v>1312</v>
+      </c>
       <c r="C107" t="s">
         <v>1302</v>
       </c>
       <c r="D107" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E107" t="s">
         <v>1280</v>
@@ -20387,11 +20708,14 @@
       <c r="A108" s="2" t="s">
         <v>1035</v>
       </c>
+      <c r="B108" t="s">
+        <v>287</v>
+      </c>
       <c r="C108" t="s">
         <v>1302</v>
       </c>
       <c r="D108" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E108" t="s">
         <v>1280</v>
@@ -20537,11 +20861,14 @@
       <c r="A109" s="2" t="s">
         <v>1045</v>
       </c>
+      <c r="B109" t="s">
+        <v>1312</v>
+      </c>
       <c r="C109" t="s">
         <v>1302</v>
       </c>
       <c r="D109" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E109" t="s">
         <v>1285</v>
@@ -20684,11 +21011,14 @@
       <c r="A110" s="2" t="s">
         <v>1046</v>
       </c>
+      <c r="B110" t="s">
+        <v>287</v>
+      </c>
       <c r="C110" t="s">
         <v>1302</v>
       </c>
       <c r="D110" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E110" t="s">
         <v>1285</v>
@@ -20833,11 +21163,14 @@
       <c r="A111" s="2" t="s">
         <v>1047</v>
       </c>
+      <c r="B111" t="s">
+        <v>287</v>
+      </c>
       <c r="C111" t="s">
         <v>1302</v>
       </c>
       <c r="D111" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E111" t="s">
         <v>1280</v>
@@ -20980,6 +21313,9 @@
       <c r="A112" s="2" t="s">
         <v>1048</v>
       </c>
+      <c r="B112" t="s">
+        <v>1312</v>
+      </c>
       <c r="C112" t="s">
         <v>1302</v>
       </c>
@@ -21127,6 +21463,9 @@
       <c r="A113" s="2" t="s">
         <v>1071</v>
       </c>
+      <c r="B113" t="s">
+        <v>1312</v>
+      </c>
       <c r="C113" t="s">
         <v>1302</v>
       </c>
@@ -21274,6 +21613,9 @@
       <c r="A114" s="2" t="s">
         <v>1072</v>
       </c>
+      <c r="B114" t="s">
+        <v>287</v>
+      </c>
       <c r="C114" t="s">
         <v>1302</v>
       </c>
@@ -21421,6 +21763,9 @@
       <c r="A115" s="2" t="s">
         <v>1073</v>
       </c>
+      <c r="B115" t="s">
+        <v>287</v>
+      </c>
       <c r="C115" t="s">
         <v>1302</v>
       </c>
@@ -21568,6 +21913,9 @@
       <c r="A116" s="2" t="s">
         <v>1074</v>
       </c>
+      <c r="B116" t="s">
+        <v>1312</v>
+      </c>
       <c r="C116" t="s">
         <v>1302</v>
       </c>
@@ -21715,6 +22063,9 @@
       <c r="A117" s="2" t="s">
         <v>1075</v>
       </c>
+      <c r="B117" t="s">
+        <v>287</v>
+      </c>
       <c r="C117" t="s">
         <v>1302</v>
       </c>
@@ -21862,6 +22213,9 @@
       <c r="A118" s="2" t="s">
         <v>1111</v>
       </c>
+      <c r="B118" t="s">
+        <v>287</v>
+      </c>
       <c r="C118" t="s">
         <v>1302</v>
       </c>
@@ -22009,6 +22363,9 @@
       <c r="A119" s="2" t="s">
         <v>1112</v>
       </c>
+      <c r="B119" t="s">
+        <v>1312</v>
+      </c>
       <c r="C119" t="s">
         <v>1302</v>
       </c>
@@ -22156,6 +22513,9 @@
       <c r="A120" s="2" t="s">
         <v>1113</v>
       </c>
+      <c r="B120" t="s">
+        <v>1312</v>
+      </c>
       <c r="C120" t="s">
         <v>1302</v>
       </c>
@@ -22303,6 +22663,9 @@
       <c r="A121" s="2" t="s">
         <v>1114</v>
       </c>
+      <c r="B121" t="s">
+        <v>287</v>
+      </c>
       <c r="C121" t="s">
         <v>1302</v>
       </c>
@@ -22450,6 +22813,9 @@
       <c r="A122" s="2" t="s">
         <v>1115</v>
       </c>
+      <c r="B122" t="s">
+        <v>287</v>
+      </c>
       <c r="C122" t="s">
         <v>1302</v>
       </c>
@@ -22597,6 +22963,9 @@
       <c r="A123" s="2" t="s">
         <v>1116</v>
       </c>
+      <c r="B123" t="s">
+        <v>287</v>
+      </c>
       <c r="C123" t="s">
         <v>1302</v>
       </c>
@@ -22744,6 +23113,9 @@
       <c r="A124" s="2" t="s">
         <v>1117</v>
       </c>
+      <c r="B124" t="s">
+        <v>287</v>
+      </c>
       <c r="C124" t="s">
         <v>1302</v>
       </c>
@@ -22891,6 +23263,9 @@
       <c r="A125" s="2" t="s">
         <v>1118</v>
       </c>
+      <c r="B125" t="s">
+        <v>1312</v>
+      </c>
       <c r="C125" t="s">
         <v>1302</v>
       </c>
@@ -23038,6 +23413,9 @@
       <c r="A126" s="2" t="s">
         <v>1119</v>
       </c>
+      <c r="B126" t="s">
+        <v>287</v>
+      </c>
       <c r="C126" t="s">
         <v>1302</v>
       </c>
@@ -23185,6 +23563,9 @@
       <c r="A127" s="2" t="s">
         <v>1120</v>
       </c>
+      <c r="B127" t="s">
+        <v>287</v>
+      </c>
       <c r="C127" t="s">
         <v>1302</v>
       </c>
@@ -23332,6 +23713,9 @@
       <c r="A128" s="2" t="s">
         <v>1121</v>
       </c>
+      <c r="B128" t="s">
+        <v>287</v>
+      </c>
       <c r="C128" t="s">
         <v>1302</v>
       </c>
@@ -23479,6 +23863,9 @@
       <c r="A129" s="2" t="s">
         <v>1122</v>
       </c>
+      <c r="B129" t="s">
+        <v>1312</v>
+      </c>
       <c r="C129" t="s">
         <v>1302</v>
       </c>
@@ -23626,6 +24013,9 @@
       <c r="A130" s="2" t="s">
         <v>1123</v>
       </c>
+      <c r="B130" t="s">
+        <v>287</v>
+      </c>
       <c r="C130" t="s">
         <v>1302</v>
       </c>
@@ -23773,6 +24163,9 @@
       <c r="A131" s="2" t="s">
         <v>1207</v>
       </c>
+      <c r="B131" t="s">
+        <v>287</v>
+      </c>
       <c r="C131" t="s">
         <v>1302</v>
       </c>
@@ -23920,6 +24313,9 @@
       <c r="A132" s="2" t="s">
         <v>1208</v>
       </c>
+      <c r="B132" t="s">
+        <v>287</v>
+      </c>
       <c r="C132" t="s">
         <v>1302</v>
       </c>
@@ -24070,6 +24466,9 @@
       <c r="A133" s="2" t="s">
         <v>1209</v>
       </c>
+      <c r="B133" t="s">
+        <v>287</v>
+      </c>
       <c r="C133" t="s">
         <v>1302</v>
       </c>
@@ -24217,6 +24616,9 @@
       <c r="A134" s="2" t="s">
         <v>1210</v>
       </c>
+      <c r="B134" t="s">
+        <v>287</v>
+      </c>
       <c r="C134" t="s">
         <v>1302</v>
       </c>
@@ -24366,6 +24768,9 @@
       <c r="A135" s="2" t="s">
         <v>1230</v>
       </c>
+      <c r="B135" t="s">
+        <v>287</v>
+      </c>
       <c r="C135" t="s">
         <v>1302</v>
       </c>
@@ -24513,6 +24918,9 @@
       <c r="A136" s="2" t="s">
         <v>1231</v>
       </c>
+      <c r="B136" t="s">
+        <v>287</v>
+      </c>
       <c r="C136" t="s">
         <v>1302</v>
       </c>
@@ -24660,6 +25068,9 @@
       <c r="A137" s="2" t="s">
         <v>1232</v>
       </c>
+      <c r="B137" t="s">
+        <v>1312</v>
+      </c>
       <c r="C137" t="s">
         <v>1303</v>
       </c>
@@ -24807,11 +25218,14 @@
       <c r="A138" s="2" t="s">
         <v>1240</v>
       </c>
+      <c r="B138" t="s">
+        <v>287</v>
+      </c>
       <c r="C138" t="s">
         <v>1302</v>
       </c>
       <c r="D138" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="E138" t="s">
         <v>1285</v>
@@ -24956,6 +25370,9 @@
       <c r="A139" s="2" t="s">
         <v>1241</v>
       </c>
+      <c r="B139" t="s">
+        <v>287</v>
+      </c>
       <c r="C139" t="s">
         <v>1302</v>
       </c>
@@ -25103,6 +25520,9 @@
       <c r="A140" s="2" t="s">
         <v>1243</v>
       </c>
+      <c r="B140" t="s">
+        <v>287</v>
+      </c>
       <c r="C140" t="s">
         <v>1302</v>
       </c>
@@ -25250,6 +25670,9 @@
       <c r="A141" s="2" t="s">
         <v>1244</v>
       </c>
+      <c r="B141" t="s">
+        <v>287</v>
+      </c>
       <c r="C141" t="s">
         <v>1302</v>
       </c>
@@ -25397,6 +25820,9 @@
       <c r="A142" s="2" t="s">
         <v>1245</v>
       </c>
+      <c r="B142" t="s">
+        <v>287</v>
+      </c>
       <c r="C142" t="s">
         <v>1302</v>
       </c>
@@ -25546,6 +25972,9 @@
       <c r="A143" s="2" t="s">
         <v>1246</v>
       </c>
+      <c r="B143" t="s">
+        <v>1312</v>
+      </c>
       <c r="C143" t="s">
         <v>1302</v>
       </c>
@@ -25693,6 +26122,9 @@
       <c r="A144" s="2" t="s">
         <v>1247</v>
       </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
       <c r="C144" t="s">
         <v>1302</v>
       </c>
@@ -25839,6 +26271,9 @@
     <row r="145" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>1248</v>
+      </c>
+      <c r="B145" t="s">
+        <v>287</v>
       </c>
       <c r="C145" t="s">
         <v>1302</v>

--- a/PRE_COMPLETED_240711.xlsx
+++ b/PRE_COMPLETED_240711.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joellai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ED8710-2AA0-42BE-A1C7-6CF753E90659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97365911-07B4-41C6-840D-8D9DC65308B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F53C505B-FBAC-4F63-BBBE-A7950FD9EED9}"/>
   </bookViews>
@@ -4078,13 +4078,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4130,13 +4133,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C697B41-BD86-48C7-85C0-550714AD8384}" name="Table1" displayName="Table1" ref="A1:AZ144" totalsRowShown="0">
   <autoFilter ref="A1:AZ144" xr:uid="{0C697B41-BD86-48C7-85C0-550714AD8384}"/>
   <tableColumns count="52">
-    <tableColumn id="1" xr3:uid="{781051B0-B7CC-48C4-8145-98DE50408608}" name="Record ID"/>
+    <tableColumn id="1" xr3:uid="{781051B0-B7CC-48C4-8145-98DE50408608}" name="Record ID" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{338CB308-9863-9442-A29A-A70974184FA0}" name="Participation_Status"/>
     <tableColumn id="3" xr3:uid="{F072FAE2-62D3-E848-A2C0-3DB65749A7B6}" name="Discipline"/>
     <tableColumn id="2" xr3:uid="{33274793-5E26-48A2-A0FD-8BA88B14BF01}" name="College"/>
     <tableColumn id="52" xr3:uid="{FE93679D-80F1-447D-BBA8-B5B0598D1D25}" name="School"/>
     <tableColumn id="51" xr3:uid="{00B307FB-CD4D-4D6D-BCFB-84083BE07D85}" name="Programme"/>
-    <tableColumn id="4" xr3:uid="{36CB707F-C46B-4BE7-9F6F-1277D6B299E8}" name="Minor" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{36CB707F-C46B-4BE7-9F6F-1277D6B299E8}" name="Minor" dataDxfId="1"/>
     <tableColumn id="50" xr3:uid="{AC9D052F-14C0-423F-B48D-7F7719C556FC}" name="Year"/>
     <tableColumn id="6" xr3:uid="{E0A1D494-0832-4E2E-B34B-C91E6067E6DD}" name="2.1 (Q4_A_1)"/>
     <tableColumn id="7" xr3:uid="{896FEFAC-2EA0-42D0-B051-7254295B59DD}" name="2.1 (Q4_A_2)"/>
@@ -4506,8 +4509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3733C4-4F4A-483A-8498-456379A8CDD2}">
   <dimension ref="A1:AZ144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="BA1" sqref="BA1:BA1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4689,7 +4692,7 @@
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="B2" t="s">
@@ -4707,7 +4710,7 @@
       <c r="F2" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
       <c r="H2">
         <v>1</v>
       </c>
@@ -4842,7 +4845,7 @@
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1165</v>
       </c>
       <c r="B3" t="s">
@@ -4860,7 +4863,7 @@
       <c r="F3" t="s">
         <v>210</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
       <c r="H3">
         <v>1</v>
       </c>
@@ -4992,7 +4995,7 @@
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1166</v>
       </c>
       <c r="B4" t="s">
@@ -5010,7 +5013,7 @@
       <c r="F4" t="s">
         <v>1106</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="2"/>
       <c r="H4">
         <v>3</v>
       </c>
@@ -5142,7 +5145,7 @@
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>1167</v>
       </c>
       <c r="B5" t="s">
@@ -5160,7 +5163,7 @@
       <c r="F5" t="s">
         <v>1109</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
       <c r="H5">
         <v>1</v>
       </c>
@@ -5292,7 +5295,7 @@
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>1168</v>
       </c>
       <c r="B6" t="s">
@@ -5310,7 +5313,7 @@
       <c r="F6" t="s">
         <v>210</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="2"/>
       <c r="H6">
         <v>1</v>
       </c>
@@ -5442,7 +5445,7 @@
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>1169</v>
       </c>
       <c r="B7" t="s">
@@ -5460,7 +5463,7 @@
       <c r="F7" t="s">
         <v>1112</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H7">
@@ -5594,7 +5597,7 @@
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>1170</v>
       </c>
       <c r="B8" t="s">
@@ -5612,7 +5615,7 @@
       <c r="F8" t="s">
         <v>1109</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>131</v>
       </c>
       <c r="H8">
@@ -5746,7 +5749,7 @@
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>1171</v>
       </c>
       <c r="B9" t="s">
@@ -5764,7 +5767,7 @@
       <c r="F9" t="s">
         <v>1109</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2"/>
       <c r="H9">
         <v>1</v>
       </c>
@@ -5896,7 +5899,7 @@
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>1172</v>
       </c>
       <c r="B10" t="s">
@@ -5914,7 +5917,7 @@
       <c r="F10" t="s">
         <v>1114</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2"/>
       <c r="H10">
         <v>2</v>
       </c>
@@ -6046,7 +6049,7 @@
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>1173</v>
       </c>
       <c r="B11" t="s">
@@ -6064,7 +6067,7 @@
       <c r="F11" t="s">
         <v>210</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>163</v>
       </c>
       <c r="H11">
@@ -6198,7 +6201,7 @@
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>1174</v>
       </c>
       <c r="B12" t="s">
@@ -6216,7 +6219,7 @@
       <c r="F12" t="s">
         <v>210</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2"/>
       <c r="H12">
         <v>1</v>
       </c>
@@ -6348,7 +6351,7 @@
       </c>
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>1175</v>
       </c>
       <c r="B13" t="s">
@@ -6366,7 +6369,7 @@
       <c r="F13" t="s">
         <v>1109</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>182</v>
       </c>
       <c r="H13">
@@ -6500,7 +6503,7 @@
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>1176</v>
       </c>
       <c r="B14" t="s">
@@ -6518,7 +6521,7 @@
       <c r="F14" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="2"/>
       <c r="H14">
         <v>1</v>
       </c>
@@ -6650,7 +6653,7 @@
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>1177</v>
       </c>
       <c r="B15" t="s">
@@ -6668,7 +6671,7 @@
       <c r="F15" t="s">
         <v>1108</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="2"/>
       <c r="H15">
         <v>3</v>
       </c>
@@ -6800,7 +6803,7 @@
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>1178</v>
       </c>
       <c r="B16" t="s">
@@ -6818,7 +6821,7 @@
       <c r="F16" t="s">
         <v>1116</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="2"/>
       <c r="H16">
         <v>2</v>
       </c>
@@ -6950,7 +6953,7 @@
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>1179</v>
       </c>
       <c r="B17" t="s">
@@ -6968,7 +6971,7 @@
       <c r="F17" t="s">
         <v>1117</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2"/>
       <c r="H17">
         <v>3</v>
       </c>
@@ -7100,7 +7103,7 @@
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>1180</v>
       </c>
       <c r="B18" t="s">
@@ -7118,7 +7121,7 @@
       <c r="F18" t="s">
         <v>210</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>245</v>
       </c>
       <c r="H18">
@@ -7252,7 +7255,7 @@
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>1181</v>
       </c>
       <c r="B19" t="s">
@@ -7270,7 +7273,7 @@
       <c r="F19" t="s">
         <v>1110</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="2"/>
       <c r="H19">
         <v>2</v>
       </c>
@@ -7402,7 +7405,7 @@
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>1182</v>
       </c>
       <c r="B20" t="s">
@@ -7420,7 +7423,7 @@
       <c r="F20" t="s">
         <v>1117</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="2"/>
       <c r="H20">
         <v>1</v>
       </c>
@@ -7552,7 +7555,7 @@
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>1183</v>
       </c>
       <c r="B21" t="s">
@@ -7570,7 +7573,7 @@
       <c r="F21" t="s">
         <v>1108</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="2"/>
       <c r="H21">
         <v>3</v>
       </c>
@@ -7702,7 +7705,7 @@
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>1184</v>
       </c>
       <c r="B22" t="s">
@@ -7720,7 +7723,7 @@
       <c r="F22" t="s">
         <v>1118</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="2"/>
       <c r="H22">
         <v>3</v>
       </c>
@@ -7852,7 +7855,7 @@
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>1185</v>
       </c>
       <c r="B23" t="s">
@@ -7870,7 +7873,7 @@
       <c r="F23" t="s">
         <v>1106</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="2"/>
       <c r="H23">
         <v>2</v>
       </c>
@@ -8002,7 +8005,7 @@
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>1186</v>
       </c>
       <c r="B24" t="s">
@@ -8020,7 +8023,7 @@
       <c r="F24" t="s">
         <v>1148</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="2"/>
       <c r="H24">
         <v>3</v>
       </c>
@@ -8152,7 +8155,7 @@
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>1187</v>
       </c>
       <c r="B25" t="s">
@@ -8170,7 +8173,7 @@
       <c r="F25" t="s">
         <v>1120</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="2"/>
       <c r="H25">
         <v>3</v>
       </c>
@@ -8302,7 +8305,7 @@
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>1188</v>
       </c>
       <c r="B26" t="s">
@@ -8320,7 +8323,7 @@
       <c r="F26" t="s">
         <v>1106</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="2"/>
       <c r="H26">
         <v>3</v>
       </c>
@@ -8452,7 +8455,7 @@
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>1189</v>
       </c>
       <c r="B27" t="s">
@@ -8470,7 +8473,7 @@
       <c r="F27" t="s">
         <v>1106</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="2"/>
       <c r="H27">
         <v>2</v>
       </c>
@@ -8602,7 +8605,7 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>1190</v>
       </c>
       <c r="B28" t="s">
@@ -8620,7 +8623,7 @@
       <c r="F28" t="s">
         <v>1122</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="2" t="s">
         <v>333</v>
       </c>
       <c r="H28">
@@ -8754,7 +8757,7 @@
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>1191</v>
       </c>
       <c r="B29" t="s">
@@ -8772,7 +8775,7 @@
       <c r="F29" t="s">
         <v>1122</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="2"/>
       <c r="H29">
         <v>3</v>
       </c>
@@ -8904,7 +8907,7 @@
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>1192</v>
       </c>
       <c r="B30" t="s">
@@ -8922,7 +8925,7 @@
       <c r="F30" t="s">
         <v>1123</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="2"/>
       <c r="H30">
         <v>3</v>
       </c>
@@ -9054,7 +9057,7 @@
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>1193</v>
       </c>
       <c r="B31" t="s">
@@ -9072,7 +9075,7 @@
       <c r="F31" t="s">
         <v>1125</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>361</v>
       </c>
       <c r="H31">
@@ -9206,7 +9209,7 @@
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>1194</v>
       </c>
       <c r="B32" t="s">
@@ -9224,7 +9227,7 @@
       <c r="F32" t="s">
         <v>1114</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>369</v>
       </c>
       <c r="H32">
@@ -9358,7 +9361,7 @@
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>1195</v>
       </c>
       <c r="B33" t="s">
@@ -9376,7 +9379,7 @@
       <c r="F33" t="s">
         <v>1126</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>210</v>
       </c>
       <c r="H33">
@@ -9510,7 +9513,7 @@
       </c>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>1196</v>
       </c>
       <c r="B34" t="s">
@@ -9528,7 +9531,7 @@
       <c r="F34" t="s">
         <v>1125</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="2"/>
       <c r="H34">
         <v>4</v>
       </c>
@@ -9660,7 +9663,7 @@
       </c>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>1197</v>
       </c>
       <c r="B35" t="s">
@@ -9678,7 +9681,7 @@
       <c r="F35" t="s">
         <v>1116</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="2"/>
       <c r="H35">
         <v>2</v>
       </c>
@@ -9810,7 +9813,7 @@
       </c>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>1198</v>
       </c>
       <c r="B36" t="s">
@@ -9828,7 +9831,7 @@
       <c r="F36" t="s">
         <v>1122</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>402</v>
       </c>
       <c r="H36">
@@ -9962,7 +9965,7 @@
       </c>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>1199</v>
       </c>
       <c r="B37" t="s">
@@ -9980,7 +9983,7 @@
       <c r="F37" t="s">
         <v>1114</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="2"/>
       <c r="H37">
         <v>2</v>
       </c>
@@ -10112,7 +10115,7 @@
       </c>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>1200</v>
       </c>
       <c r="B38" t="s">
@@ -10130,7 +10133,7 @@
       <c r="F38" t="s">
         <v>1114</v>
       </c>
-      <c r="G38" s="3"/>
+      <c r="G38" s="2"/>
       <c r="H38">
         <v>2</v>
       </c>
@@ -10262,7 +10265,7 @@
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>1201</v>
       </c>
       <c r="B39" t="s">
@@ -10280,7 +10283,7 @@
       <c r="F39" t="s">
         <v>1117</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="2"/>
       <c r="H39">
         <v>2</v>
       </c>
@@ -10412,7 +10415,7 @@
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>1202</v>
       </c>
       <c r="B40" t="s">
@@ -10430,7 +10433,7 @@
       <c r="F40" t="s">
         <v>1117</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="2"/>
       <c r="H40">
         <v>2</v>
       </c>
@@ -10562,7 +10565,7 @@
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>1203</v>
       </c>
       <c r="B41" t="s">
@@ -10580,7 +10583,7 @@
       <c r="F41" t="s">
         <v>1123</v>
       </c>
-      <c r="G41" s="3"/>
+      <c r="G41" s="2"/>
       <c r="H41">
         <v>2</v>
       </c>
@@ -10715,7 +10718,7 @@
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>1204</v>
       </c>
       <c r="B42" t="s">
@@ -10733,7 +10736,7 @@
       <c r="F42" t="s">
         <v>1117</v>
       </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="2"/>
       <c r="H42">
         <v>3</v>
       </c>
@@ -10865,7 +10868,7 @@
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>1205</v>
       </c>
       <c r="B43" t="s">
@@ -10883,7 +10886,7 @@
       <c r="F43" t="s">
         <v>1108</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="2"/>
       <c r="H43">
         <v>3</v>
       </c>
@@ -11015,7 +11018,7 @@
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>1206</v>
       </c>
       <c r="B44" t="s">
@@ -11033,7 +11036,7 @@
       <c r="F44" t="s">
         <v>1117</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="2"/>
       <c r="H44">
         <v>2</v>
       </c>
@@ -11165,7 +11168,7 @@
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>1207</v>
       </c>
       <c r="B45" t="s">
@@ -11183,7 +11186,7 @@
       <c r="F45" t="s">
         <v>1127</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="2" t="s">
         <v>210</v>
       </c>
       <c r="H45">
@@ -11317,7 +11320,7 @@
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>1208</v>
       </c>
       <c r="B46" t="s">
@@ -11335,7 +11338,7 @@
       <c r="F46" t="s">
         <v>1127</v>
       </c>
-      <c r="G46" s="3"/>
+      <c r="G46" s="2"/>
       <c r="H46">
         <v>2</v>
       </c>
@@ -11467,7 +11470,7 @@
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="B47" t="s">
@@ -11485,7 +11488,7 @@
       <c r="F47" t="s">
         <v>1110</v>
       </c>
-      <c r="G47" s="3"/>
+      <c r="G47" s="2"/>
       <c r="H47">
         <v>2</v>
       </c>
@@ -11617,7 +11620,7 @@
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="B48" t="s">
@@ -11635,7 +11638,7 @@
       <c r="F48" t="s">
         <v>1128</v>
       </c>
-      <c r="G48" s="3"/>
+      <c r="G48" s="2"/>
       <c r="H48">
         <v>4</v>
       </c>
@@ -11767,7 +11770,7 @@
       </c>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>1211</v>
       </c>
       <c r="B49" t="s">
@@ -11785,7 +11788,7 @@
       <c r="F49" t="s">
         <v>1116</v>
       </c>
-      <c r="G49" s="3"/>
+      <c r="G49" s="2"/>
       <c r="H49">
         <v>2</v>
       </c>
@@ -11917,7 +11920,7 @@
       </c>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>1212</v>
       </c>
       <c r="B50" t="s">
@@ -11935,7 +11938,7 @@
       <c r="F50" t="s">
         <v>1125</v>
       </c>
-      <c r="G50" s="3"/>
+      <c r="G50" s="2"/>
       <c r="H50">
         <v>3</v>
       </c>
@@ -12067,7 +12070,7 @@
       </c>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="B51" t="s">
@@ -12085,7 +12088,7 @@
       <c r="F51" t="s">
         <v>1114</v>
       </c>
-      <c r="G51" s="3"/>
+      <c r="G51" s="2"/>
       <c r="H51">
         <v>2</v>
       </c>
@@ -12217,7 +12220,7 @@
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>1214</v>
       </c>
       <c r="B52" t="s">
@@ -12235,7 +12238,7 @@
       <c r="F52" t="s">
         <v>1130</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="2" t="s">
         <v>513</v>
       </c>
       <c r="H52">
@@ -12369,7 +12372,7 @@
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>1215</v>
       </c>
       <c r="B53" t="s">
@@ -12387,7 +12390,7 @@
       <c r="F53" t="s">
         <v>1106</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="2" t="s">
         <v>210</v>
       </c>
       <c r="H53">
@@ -12521,7 +12524,7 @@
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>1216</v>
       </c>
       <c r="B54" t="s">
@@ -12539,7 +12542,7 @@
       <c r="F54" t="s">
         <v>1118</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="2" t="s">
         <v>525</v>
       </c>
       <c r="H54">
@@ -12673,7 +12676,7 @@
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>1217</v>
       </c>
       <c r="B55" t="s">
@@ -12691,7 +12694,7 @@
       <c r="F55" t="s">
         <v>1122</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="G55" s="2"/>
       <c r="H55">
         <v>2</v>
       </c>
@@ -12823,7 +12826,7 @@
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>1218</v>
       </c>
       <c r="B56" t="s">
@@ -12841,7 +12844,7 @@
       <c r="F56" t="s">
         <v>1118</v>
       </c>
-      <c r="G56" s="3"/>
+      <c r="G56" s="2"/>
       <c r="H56">
         <v>2</v>
       </c>
@@ -12973,7 +12976,7 @@
       </c>
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>1219</v>
       </c>
       <c r="B57" t="s">
@@ -12991,7 +12994,7 @@
       <c r="F57" t="s">
         <v>1120</v>
       </c>
-      <c r="G57" s="3"/>
+      <c r="G57" s="2"/>
       <c r="H57">
         <v>2</v>
       </c>
@@ -13123,7 +13126,7 @@
       </c>
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>1220</v>
       </c>
       <c r="B58" t="s">
@@ -13141,7 +13144,7 @@
       <c r="F58" t="s">
         <v>1118</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="2" t="s">
         <v>558</v>
       </c>
       <c r="H58">
@@ -13275,7 +13278,7 @@
       </c>
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>1221</v>
       </c>
       <c r="B59" t="s">
@@ -13293,7 +13296,7 @@
       <c r="F59" t="s">
         <v>1130</v>
       </c>
-      <c r="G59" s="3"/>
+      <c r="G59" s="2"/>
       <c r="H59">
         <v>4</v>
       </c>
@@ -13425,7 +13428,7 @@
       </c>
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>1222</v>
       </c>
       <c r="B60" t="s">
@@ -13443,7 +13446,7 @@
       <c r="F60" t="s">
         <v>1110</v>
       </c>
-      <c r="G60" s="3"/>
+      <c r="G60" s="2"/>
       <c r="H60">
         <v>2</v>
       </c>
@@ -13575,7 +13578,7 @@
       </c>
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>1223</v>
       </c>
       <c r="B61" t="s">
@@ -13593,7 +13596,7 @@
       <c r="F61" t="s">
         <v>1120</v>
       </c>
-      <c r="G61" s="3"/>
+      <c r="G61" s="2"/>
       <c r="H61">
         <v>3</v>
       </c>
@@ -13725,7 +13728,7 @@
       </c>
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>1224</v>
       </c>
       <c r="B62" t="s">
@@ -13743,7 +13746,7 @@
       <c r="F62" t="s">
         <v>1120</v>
       </c>
-      <c r="G62" s="3"/>
+      <c r="G62" s="2"/>
       <c r="H62">
         <v>4</v>
       </c>
@@ -13875,7 +13878,7 @@
       </c>
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>1225</v>
       </c>
       <c r="B63" t="s">
@@ -13893,7 +13896,7 @@
       <c r="F63" t="s">
         <v>1118</v>
       </c>
-      <c r="G63" s="3"/>
+      <c r="G63" s="2"/>
       <c r="H63">
         <v>3</v>
       </c>
@@ -14028,7 +14031,7 @@
       </c>
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>1226</v>
       </c>
       <c r="B64" t="s">
@@ -14046,7 +14049,7 @@
       <c r="F64" t="s">
         <v>1106</v>
       </c>
-      <c r="G64" s="3"/>
+      <c r="G64" s="2"/>
       <c r="H64">
         <v>3</v>
       </c>
@@ -14178,7 +14181,7 @@
       </c>
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>1227</v>
       </c>
       <c r="B65" t="s">
@@ -14196,7 +14199,7 @@
       <c r="F65" t="s">
         <v>1117</v>
       </c>
-      <c r="G65" s="3"/>
+      <c r="G65" s="2"/>
       <c r="H65">
         <v>2</v>
       </c>
@@ -14328,7 +14331,7 @@
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>1228</v>
       </c>
       <c r="B66" t="s">
@@ -14346,7 +14349,7 @@
       <c r="F66" t="s">
         <v>1123</v>
       </c>
-      <c r="G66" s="3"/>
+      <c r="G66" s="2"/>
       <c r="H66">
         <v>2</v>
       </c>
@@ -14478,7 +14481,7 @@
       </c>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>1229</v>
       </c>
       <c r="B67" t="s">
@@ -14496,7 +14499,7 @@
       <c r="F67" t="s">
         <v>1110</v>
       </c>
-      <c r="G67" s="3"/>
+      <c r="G67" s="2"/>
       <c r="H67">
         <v>2</v>
       </c>
@@ -14631,7 +14634,7 @@
       </c>
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>1230</v>
       </c>
       <c r="B68" t="s">
@@ -14649,7 +14652,7 @@
       <c r="F68" t="s">
         <v>1126</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="2" t="s">
         <v>634</v>
       </c>
       <c r="H68">
@@ -14783,7 +14786,7 @@
       </c>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>1231</v>
       </c>
       <c r="B69" t="s">
@@ -14801,7 +14804,7 @@
       <c r="F69" t="s">
         <v>1123</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="2" t="s">
         <v>1157</v>
       </c>
       <c r="H69">
@@ -14935,7 +14938,7 @@
       </c>
     </row>
     <row r="70" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>1232</v>
       </c>
       <c r="B70" t="s">
@@ -14953,7 +14956,7 @@
       <c r="F70" t="s">
         <v>1122</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="2" t="s">
         <v>210</v>
       </c>
       <c r="H70">
@@ -15087,7 +15090,7 @@
       </c>
     </row>
     <row r="71" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>1233</v>
       </c>
       <c r="B71" t="s">
@@ -15105,7 +15108,7 @@
       <c r="F71" t="s">
         <v>1117</v>
       </c>
-      <c r="G71" s="3"/>
+      <c r="G71" s="2"/>
       <c r="H71">
         <v>3</v>
       </c>
@@ -15237,7 +15240,7 @@
       </c>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>1234</v>
       </c>
       <c r="B72" t="s">
@@ -15255,7 +15258,7 @@
       <c r="F72" t="s">
         <v>1117</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="2" t="s">
         <v>663</v>
       </c>
       <c r="H72">
@@ -15392,7 +15395,7 @@
       </c>
     </row>
     <row r="73" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="B73" t="s">
@@ -15410,7 +15413,7 @@
       <c r="F73" t="s">
         <v>1117</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="2" t="s">
         <v>1158</v>
       </c>
       <c r="H73">
@@ -15544,7 +15547,7 @@
       </c>
     </row>
     <row r="74" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>1236</v>
       </c>
       <c r="B74" t="s">
@@ -15562,7 +15565,7 @@
       <c r="F74" t="s">
         <v>1120</v>
       </c>
-      <c r="G74" s="3"/>
+      <c r="G74" s="2"/>
       <c r="H74">
         <v>4</v>
       </c>
@@ -15694,7 +15697,7 @@
       </c>
     </row>
     <row r="75" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>1237</v>
       </c>
       <c r="B75" t="s">
@@ -15712,7 +15715,7 @@
       <c r="F75" t="s">
         <v>1114</v>
       </c>
-      <c r="G75" s="3"/>
+      <c r="G75" s="2"/>
       <c r="H75">
         <v>2</v>
       </c>
@@ -15844,7 +15847,7 @@
       </c>
     </row>
     <row r="76" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>1238</v>
       </c>
       <c r="B76" t="s">
@@ -15862,7 +15865,7 @@
       <c r="F76" t="s">
         <v>1118</v>
       </c>
-      <c r="G76" s="3"/>
+      <c r="G76" s="2"/>
       <c r="H76">
         <v>2</v>
       </c>
@@ -15994,7 +15997,7 @@
       </c>
     </row>
     <row r="77" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>1239</v>
       </c>
       <c r="B77" t="s">
@@ -16012,7 +16015,7 @@
       <c r="F77" t="s">
         <v>1123</v>
       </c>
-      <c r="G77" s="3"/>
+      <c r="G77" s="2"/>
       <c r="H77">
         <v>3</v>
       </c>
@@ -16147,7 +16150,7 @@
       </c>
     </row>
     <row r="78" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>1240</v>
       </c>
       <c r="B78" t="s">
@@ -16165,7 +16168,7 @@
       <c r="F78" t="s">
         <v>1108</v>
       </c>
-      <c r="G78" s="3"/>
+      <c r="G78" s="2"/>
       <c r="H78">
         <v>3</v>
       </c>
@@ -16297,7 +16300,7 @@
       </c>
     </row>
     <row r="79" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>1241</v>
       </c>
       <c r="B79" t="s">
@@ -16315,7 +16318,7 @@
       <c r="F79" t="s">
         <v>1122</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="2" t="s">
         <v>712</v>
       </c>
       <c r="H79">
@@ -16449,7 +16452,7 @@
       </c>
     </row>
     <row r="80" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>1242</v>
       </c>
       <c r="B80" t="s">
@@ -16467,7 +16470,7 @@
       <c r="F80" t="s">
         <v>1112</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="2" t="s">
         <v>712</v>
       </c>
       <c r="H80">
@@ -16601,7 +16604,7 @@
       </c>
     </row>
     <row r="81" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>1243</v>
       </c>
       <c r="B81" t="s">
@@ -16619,7 +16622,7 @@
       <c r="F81" t="s">
         <v>1118</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="2" t="s">
         <v>728</v>
       </c>
       <c r="H81">
@@ -16753,7 +16756,7 @@
       </c>
     </row>
     <row r="82" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>1244</v>
       </c>
       <c r="B82" t="s">
@@ -16771,7 +16774,7 @@
       <c r="F82" t="s">
         <v>1117</v>
       </c>
-      <c r="G82" s="3"/>
+      <c r="G82" s="2"/>
       <c r="H82">
         <v>2</v>
       </c>
@@ -16903,7 +16906,7 @@
       </c>
     </row>
     <row r="83" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>1245</v>
       </c>
       <c r="B83" t="s">
@@ -16921,7 +16924,7 @@
       <c r="F83" t="s">
         <v>1114</v>
       </c>
-      <c r="G83" s="3"/>
+      <c r="G83" s="2"/>
       <c r="H83">
         <v>3</v>
       </c>
@@ -17053,7 +17056,7 @@
       </c>
     </row>
     <row r="84" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>1246</v>
       </c>
       <c r="B84" t="s">
@@ -17071,7 +17074,7 @@
       <c r="F84" t="s">
         <v>1125</v>
       </c>
-      <c r="G84" s="3"/>
+      <c r="G84" s="2"/>
       <c r="H84">
         <v>3</v>
       </c>
@@ -17203,7 +17206,7 @@
       </c>
     </row>
     <row r="85" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>1247</v>
       </c>
       <c r="B85" t="s">
@@ -17221,7 +17224,7 @@
       <c r="F85" t="s">
         <v>1123</v>
       </c>
-      <c r="G85" s="3"/>
+      <c r="G85" s="2"/>
       <c r="H85">
         <v>3</v>
       </c>
@@ -17353,7 +17356,7 @@
       </c>
     </row>
     <row r="86" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>1248</v>
       </c>
       <c r="B86" t="s">
@@ -17371,7 +17374,7 @@
       <c r="F86" t="s">
         <v>1156</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="2" t="s">
         <v>1159</v>
       </c>
       <c r="H86">
@@ -17505,7 +17508,7 @@
       </c>
     </row>
     <row r="87" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>1249</v>
       </c>
       <c r="B87" t="s">
@@ -17523,7 +17526,7 @@
       <c r="F87" t="s">
         <v>1132</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="2" t="s">
         <v>1160</v>
       </c>
       <c r="H87">
@@ -17657,7 +17660,7 @@
       </c>
     </row>
     <row r="88" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>1250</v>
       </c>
       <c r="B88" t="s">
@@ -17675,7 +17678,7 @@
       <c r="F88" t="s">
         <v>1133</v>
       </c>
-      <c r="G88" s="3"/>
+      <c r="G88" s="2"/>
       <c r="H88">
         <v>3</v>
       </c>
@@ -17807,7 +17810,7 @@
       </c>
     </row>
     <row r="89" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>1251</v>
       </c>
       <c r="B89" t="s">
@@ -17825,7 +17828,7 @@
       <c r="F89" t="s">
         <v>111</v>
       </c>
-      <c r="G89" s="3"/>
+      <c r="G89" s="2"/>
       <c r="H89">
         <v>4</v>
       </c>
@@ -17957,7 +17960,7 @@
       </c>
     </row>
     <row r="90" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>1252</v>
       </c>
       <c r="B90" t="s">
@@ -17975,7 +17978,7 @@
       <c r="F90" t="s">
         <v>1132</v>
       </c>
-      <c r="G90" s="3"/>
+      <c r="G90" s="2"/>
       <c r="H90">
         <v>2</v>
       </c>
@@ -18107,7 +18110,7 @@
       </c>
     </row>
     <row r="91" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>1253</v>
       </c>
       <c r="B91" t="s">
@@ -18125,7 +18128,7 @@
       <c r="F91" t="s">
         <v>1134</v>
       </c>
-      <c r="G91" s="3"/>
+      <c r="G91" s="2"/>
       <c r="H91">
         <v>3</v>
       </c>
@@ -18257,7 +18260,7 @@
       </c>
     </row>
     <row r="92" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>1254</v>
       </c>
       <c r="B92" t="s">
@@ -18275,7 +18278,7 @@
       <c r="F92" t="s">
         <v>1135</v>
       </c>
-      <c r="G92" s="3"/>
+      <c r="G92" s="2"/>
       <c r="H92">
         <v>2</v>
       </c>
@@ -18407,7 +18410,7 @@
       </c>
     </row>
     <row r="93" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>1255</v>
       </c>
       <c r="B93" t="s">
@@ -18425,7 +18428,7 @@
       <c r="F93" t="s">
         <v>1137</v>
       </c>
-      <c r="G93" s="3"/>
+      <c r="G93" s="2"/>
       <c r="H93">
         <v>2</v>
       </c>
@@ -18557,7 +18560,7 @@
       </c>
     </row>
     <row r="94" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>1256</v>
       </c>
       <c r="B94" t="s">
@@ -18575,7 +18578,7 @@
       <c r="F94" t="s">
         <v>1138</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G94" s="2" t="s">
         <v>819</v>
       </c>
       <c r="H94">
@@ -18709,7 +18712,7 @@
       </c>
     </row>
     <row r="95" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>1257</v>
       </c>
       <c r="B95" t="s">
@@ -18727,7 +18730,7 @@
       <c r="F95" t="s">
         <v>1137</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G95" s="2" t="s">
         <v>824</v>
       </c>
       <c r="H95">
@@ -18864,7 +18867,7 @@
       </c>
     </row>
     <row r="96" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>1258</v>
       </c>
       <c r="B96" t="s">
@@ -18882,7 +18885,7 @@
       <c r="F96" t="s">
         <v>1133</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="2" t="s">
         <v>834</v>
       </c>
       <c r="H96">
@@ -19019,7 +19022,7 @@
       </c>
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>1259</v>
       </c>
       <c r="B97" t="s">
@@ -19037,7 +19040,7 @@
       <c r="F97" t="s">
         <v>1132</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G97" s="2" t="s">
         <v>842</v>
       </c>
       <c r="H97">
@@ -19171,7 +19174,7 @@
       </c>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>1260</v>
       </c>
       <c r="B98" t="s">
@@ -19189,7 +19192,7 @@
       <c r="F98" t="s">
         <v>1139</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G98" s="2" t="s">
         <v>851</v>
       </c>
       <c r="H98">
@@ -19323,7 +19326,7 @@
       </c>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>1261</v>
       </c>
       <c r="B99" t="s">
@@ -19341,7 +19344,7 @@
       <c r="F99" t="s">
         <v>1134</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="G99" s="2" t="s">
         <v>859</v>
       </c>
       <c r="H99">
@@ -19475,7 +19478,7 @@
       </c>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>1262</v>
       </c>
       <c r="B100" t="s">
@@ -19493,7 +19496,7 @@
       <c r="F100" t="s">
         <v>1134</v>
       </c>
-      <c r="G100" s="3"/>
+      <c r="G100" s="2"/>
       <c r="H100">
         <v>2</v>
       </c>
@@ -19625,7 +19628,7 @@
       </c>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>1263</v>
       </c>
       <c r="B101" t="s">
@@ -19643,7 +19646,7 @@
       <c r="F101" t="s">
         <v>1133</v>
       </c>
-      <c r="G101" s="3"/>
+      <c r="G101" s="2"/>
       <c r="H101">
         <v>2</v>
       </c>
@@ -19775,7 +19778,7 @@
       </c>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>1264</v>
       </c>
       <c r="B102" t="s">
@@ -19793,7 +19796,7 @@
       <c r="F102" t="s">
         <v>1139</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G102" s="2" t="s">
         <v>879</v>
       </c>
       <c r="H102">
@@ -19927,7 +19930,7 @@
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>1265</v>
       </c>
       <c r="B103" t="s">
@@ -19945,7 +19948,7 @@
       <c r="F103" t="s">
         <v>1137</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G103" s="2" t="s">
         <v>890</v>
       </c>
       <c r="H103">
@@ -20079,7 +20082,7 @@
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>1266</v>
       </c>
       <c r="B104" t="s">
@@ -20097,7 +20100,7 @@
       <c r="F104" t="s">
         <v>1137</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G104" s="2" t="s">
         <v>901</v>
       </c>
       <c r="H104">
@@ -20234,7 +20237,7 @@
       </c>
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>1267</v>
       </c>
       <c r="B105" t="s">
@@ -20252,7 +20255,7 @@
       <c r="F105" t="s">
         <v>111</v>
       </c>
-      <c r="G105" s="3"/>
+      <c r="G105" s="2"/>
       <c r="H105">
         <v>3</v>
       </c>
@@ -20384,7 +20387,7 @@
       </c>
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>1268</v>
       </c>
       <c r="B106" t="s">
@@ -20402,7 +20405,7 @@
       <c r="F106" t="s">
         <v>1134</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G106" s="2" t="s">
         <v>917</v>
       </c>
       <c r="H106">
@@ -20536,7 +20539,7 @@
       </c>
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>1269</v>
       </c>
       <c r="B107" t="s">
@@ -20554,7 +20557,7 @@
       <c r="F107" t="s">
         <v>111</v>
       </c>
-      <c r="G107" s="3"/>
+      <c r="G107" s="2"/>
       <c r="H107">
         <v>3</v>
       </c>
@@ -20689,7 +20692,7 @@
       </c>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>1270</v>
       </c>
       <c r="B108" t="s">
@@ -20707,7 +20710,7 @@
       <c r="F108" t="s">
         <v>1140</v>
       </c>
-      <c r="G108" s="3"/>
+      <c r="G108" s="2"/>
       <c r="H108">
         <v>2</v>
       </c>
@@ -20839,7 +20842,7 @@
       </c>
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>1271</v>
       </c>
       <c r="B109" t="s">
@@ -20857,7 +20860,7 @@
       <c r="F109" t="s">
         <v>1139</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="2" t="s">
         <v>901</v>
       </c>
       <c r="H109">
@@ -20991,7 +20994,7 @@
       </c>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>1272</v>
       </c>
       <c r="B110" t="s">
@@ -21009,7 +21012,7 @@
       <c r="F110" t="s">
         <v>1132</v>
       </c>
-      <c r="G110" s="3"/>
+      <c r="G110" s="2"/>
       <c r="H110">
         <v>3</v>
       </c>
@@ -21141,7 +21144,7 @@
       </c>
     </row>
     <row r="111" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>1273</v>
       </c>
       <c r="B111" t="s">
@@ -21159,7 +21162,7 @@
       <c r="F111" t="s">
         <v>210</v>
       </c>
-      <c r="G111" s="3"/>
+      <c r="G111" s="2"/>
       <c r="H111">
         <v>1</v>
       </c>
@@ -21291,7 +21294,7 @@
       </c>
     </row>
     <row r="112" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>1274</v>
       </c>
       <c r="B112" t="s">
@@ -21309,7 +21312,7 @@
       <c r="F112" t="s">
         <v>210</v>
       </c>
-      <c r="G112" s="3"/>
+      <c r="G112" s="2"/>
       <c r="H112">
         <v>1</v>
       </c>
@@ -21441,7 +21444,7 @@
       </c>
     </row>
     <row r="113" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>1275</v>
       </c>
       <c r="B113" t="s">
@@ -21459,7 +21462,7 @@
       <c r="F113" t="s">
         <v>1109</v>
       </c>
-      <c r="G113" s="3"/>
+      <c r="G113" s="2"/>
       <c r="H113">
         <v>1</v>
       </c>
@@ -21591,7 +21594,7 @@
       </c>
     </row>
     <row r="114" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>1276</v>
       </c>
       <c r="B114" t="s">
@@ -21609,7 +21612,7 @@
       <c r="F114" t="s">
         <v>210</v>
       </c>
-      <c r="G114" s="3"/>
+      <c r="G114" s="2"/>
       <c r="H114">
         <v>1</v>
       </c>
@@ -21741,7 +21744,7 @@
       </c>
     </row>
     <row r="115" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>1277</v>
       </c>
       <c r="B115" t="s">
@@ -21759,7 +21762,7 @@
       <c r="F115" t="s">
         <v>210</v>
       </c>
-      <c r="G115" s="3"/>
+      <c r="G115" s="2"/>
       <c r="H115">
         <v>1</v>
       </c>
@@ -21891,7 +21894,7 @@
       </c>
     </row>
     <row r="116" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>1278</v>
       </c>
       <c r="B116" t="s">
@@ -21909,7 +21912,7 @@
       <c r="F116" t="s">
         <v>210</v>
       </c>
-      <c r="G116" s="3"/>
+      <c r="G116" s="2"/>
       <c r="H116">
         <v>1</v>
       </c>
@@ -22041,7 +22044,7 @@
       </c>
     </row>
     <row r="117" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>1279</v>
       </c>
       <c r="B117" t="s">
@@ -22059,7 +22062,7 @@
       <c r="F117" t="s">
         <v>1109</v>
       </c>
-      <c r="G117" s="3"/>
+      <c r="G117" s="2"/>
       <c r="H117">
         <v>1</v>
       </c>
@@ -22191,7 +22194,7 @@
       </c>
     </row>
     <row r="118" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>1280</v>
       </c>
       <c r="B118" t="s">
@@ -22209,7 +22212,7 @@
       <c r="F118" t="s">
         <v>210</v>
       </c>
-      <c r="G118" s="3"/>
+      <c r="G118" s="2"/>
       <c r="H118">
         <v>2</v>
       </c>
@@ -22341,7 +22344,7 @@
       </c>
     </row>
     <row r="119" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>1281</v>
       </c>
       <c r="B119" t="s">
@@ -22359,7 +22362,7 @@
       <c r="F119" t="s">
         <v>210</v>
       </c>
-      <c r="G119" s="3"/>
+      <c r="G119" s="2"/>
       <c r="H119">
         <v>1</v>
       </c>
@@ -22491,7 +22494,7 @@
       </c>
     </row>
     <row r="120" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>1282</v>
       </c>
       <c r="B120" t="s">
@@ -22509,7 +22512,7 @@
       <c r="F120" t="s">
         <v>210</v>
       </c>
-      <c r="G120" s="3"/>
+      <c r="G120" s="2"/>
       <c r="H120">
         <v>1</v>
       </c>
@@ -22641,7 +22644,7 @@
       </c>
     </row>
     <row r="121" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>1283</v>
       </c>
       <c r="B121" t="s">
@@ -22659,7 +22662,7 @@
       <c r="F121" t="s">
         <v>210</v>
       </c>
-      <c r="G121" s="3"/>
+      <c r="G121" s="2"/>
       <c r="H121">
         <v>1</v>
       </c>
@@ -22791,7 +22794,7 @@
       </c>
     </row>
     <row r="122" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>1284</v>
       </c>
       <c r="B122" t="s">
@@ -22809,7 +22812,7 @@
       <c r="F122" t="s">
         <v>210</v>
       </c>
-      <c r="G122" s="3"/>
+      <c r="G122" s="2"/>
       <c r="H122">
         <v>1</v>
       </c>
@@ -22941,7 +22944,7 @@
       </c>
     </row>
     <row r="123" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="3" t="s">
         <v>1285</v>
       </c>
       <c r="B123" t="s">
@@ -22959,7 +22962,7 @@
       <c r="F123" t="s">
         <v>210</v>
       </c>
-      <c r="G123" s="3"/>
+      <c r="G123" s="2"/>
       <c r="H123">
         <v>2</v>
       </c>
@@ -23091,7 +23094,7 @@
       </c>
     </row>
     <row r="124" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="3" t="s">
         <v>1286</v>
       </c>
       <c r="B124" t="s">
@@ -23109,7 +23112,7 @@
       <c r="F124" t="s">
         <v>210</v>
       </c>
-      <c r="G124" s="3"/>
+      <c r="G124" s="2"/>
       <c r="H124">
         <v>2</v>
       </c>
@@ -23241,7 +23244,7 @@
       </c>
     </row>
     <row r="125" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="3" t="s">
         <v>1287</v>
       </c>
       <c r="B125" t="s">
@@ -23259,7 +23262,7 @@
       <c r="F125" t="s">
         <v>1109</v>
       </c>
-      <c r="G125" s="3"/>
+      <c r="G125" s="2"/>
       <c r="H125">
         <v>1</v>
       </c>
@@ -23391,7 +23394,7 @@
       </c>
     </row>
     <row r="126" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="3" t="s">
         <v>1288</v>
       </c>
       <c r="B126" t="s">
@@ -23409,7 +23412,7 @@
       <c r="F126" t="s">
         <v>1109</v>
       </c>
-      <c r="G126" s="3"/>
+      <c r="G126" s="2"/>
       <c r="H126">
         <v>1</v>
       </c>
@@ -23541,7 +23544,7 @@
       </c>
     </row>
     <row r="127" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="3" t="s">
         <v>1289</v>
       </c>
       <c r="B127" t="s">
@@ -23559,7 +23562,7 @@
       <c r="F127" t="s">
         <v>1147</v>
       </c>
-      <c r="G127" s="3"/>
+      <c r="G127" s="2"/>
       <c r="H127">
         <v>1</v>
       </c>
@@ -23691,7 +23694,7 @@
       </c>
     </row>
     <row r="128" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="3" t="s">
         <v>1290</v>
       </c>
       <c r="B128" t="s">
@@ -23709,7 +23712,7 @@
       <c r="F128" t="s">
         <v>210</v>
       </c>
-      <c r="G128" s="3"/>
+      <c r="G128" s="2"/>
       <c r="H128">
         <v>1</v>
       </c>
@@ -23841,7 +23844,7 @@
       </c>
     </row>
     <row r="129" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="3" t="s">
         <v>1291</v>
       </c>
       <c r="B129" t="s">
@@ -23859,7 +23862,7 @@
       <c r="F129" t="s">
         <v>1109</v>
       </c>
-      <c r="G129" s="3"/>
+      <c r="G129" s="2"/>
       <c r="H129">
         <v>1</v>
       </c>
@@ -23991,7 +23994,7 @@
       </c>
     </row>
     <row r="130" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="3" t="s">
         <v>1292</v>
       </c>
       <c r="B130" t="s">
@@ -24009,7 +24012,7 @@
       <c r="F130" t="s">
         <v>210</v>
       </c>
-      <c r="G130" s="3"/>
+      <c r="G130" s="2"/>
       <c r="H130">
         <v>1</v>
       </c>
@@ -24141,7 +24144,7 @@
       </c>
     </row>
     <row r="131" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="3" t="s">
         <v>1293</v>
       </c>
       <c r="B131" t="s">
@@ -24159,7 +24162,7 @@
       <c r="F131" t="s">
         <v>1109</v>
       </c>
-      <c r="G131" s="3"/>
+      <c r="G131" s="2"/>
       <c r="H131">
         <v>1</v>
       </c>
@@ -24294,7 +24297,7 @@
       </c>
     </row>
     <row r="132" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="3" t="s">
         <v>1294</v>
       </c>
       <c r="B132" t="s">
@@ -24312,7 +24315,7 @@
       <c r="F132" t="s">
         <v>1147</v>
       </c>
-      <c r="G132" s="3"/>
+      <c r="G132" s="2"/>
       <c r="H132">
         <v>1</v>
       </c>
@@ -24444,7 +24447,7 @@
       </c>
     </row>
     <row r="133" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="3" t="s">
         <v>1295</v>
       </c>
       <c r="B133" t="s">
@@ -24462,7 +24465,7 @@
       <c r="F133" t="s">
         <v>210</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G133" s="2" t="s">
         <v>111</v>
       </c>
       <c r="H133">
@@ -24596,7 +24599,7 @@
       </c>
     </row>
     <row r="134" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="3" t="s">
         <v>1296</v>
       </c>
       <c r="B134" t="s">
@@ -24614,7 +24617,7 @@
       <c r="F134" t="s">
         <v>210</v>
       </c>
-      <c r="G134" s="3"/>
+      <c r="G134" s="2"/>
       <c r="H134">
         <v>1</v>
       </c>
@@ -24746,7 +24749,7 @@
       </c>
     </row>
     <row r="135" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="3" t="s">
         <v>1297</v>
       </c>
       <c r="B135" t="s">
@@ -24764,7 +24767,7 @@
       <c r="F135" t="s">
         <v>210</v>
       </c>
-      <c r="G135" s="3"/>
+      <c r="G135" s="2"/>
       <c r="H135">
         <v>1</v>
       </c>
@@ -24896,7 +24899,7 @@
       </c>
     </row>
     <row r="136" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="3" t="s">
         <v>1298</v>
       </c>
       <c r="B136" t="s">
@@ -24914,7 +24917,7 @@
       <c r="F136" t="s">
         <v>1106</v>
       </c>
-      <c r="G136" s="3"/>
+      <c r="G136" s="2"/>
       <c r="H136">
         <v>3</v>
       </c>
@@ -25046,7 +25049,7 @@
       </c>
     </row>
     <row r="137" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="3" t="s">
         <v>1299</v>
       </c>
       <c r="B137" t="s">
@@ -25064,7 +25067,7 @@
       <c r="F137" t="s">
         <v>1139</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G137" s="2" t="s">
         <v>1099</v>
       </c>
       <c r="H137">
@@ -25198,7 +25201,7 @@
       </c>
     </row>
     <row r="138" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="3" t="s">
         <v>1300</v>
       </c>
       <c r="B138" t="s">
@@ -25216,7 +25219,7 @@
       <c r="F138" t="s">
         <v>210</v>
       </c>
-      <c r="G138" s="3"/>
+      <c r="G138" s="2"/>
       <c r="H138">
         <v>2</v>
       </c>
@@ -25348,7 +25351,7 @@
       </c>
     </row>
     <row r="139" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="3" t="s">
         <v>1301</v>
       </c>
       <c r="B139" t="s">
@@ -25366,7 +25369,7 @@
       <c r="F139" t="s">
         <v>210</v>
       </c>
-      <c r="G139" s="3"/>
+      <c r="G139" s="2"/>
       <c r="H139">
         <v>1</v>
       </c>
@@ -25498,7 +25501,7 @@
       </c>
     </row>
     <row r="140" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="3" t="s">
         <v>1302</v>
       </c>
       <c r="B140" t="s">
@@ -25516,7 +25519,7 @@
       <c r="F140" t="s">
         <v>210</v>
       </c>
-      <c r="G140" s="3"/>
+      <c r="G140" s="2"/>
       <c r="H140">
         <v>2</v>
       </c>
@@ -25648,7 +25651,7 @@
       </c>
     </row>
     <row r="141" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="3" t="s">
         <v>1303</v>
       </c>
       <c r="B141" t="s">
@@ -25666,7 +25669,7 @@
       <c r="F141" t="s">
         <v>1109</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="G141" s="2" t="s">
         <v>1100</v>
       </c>
       <c r="H141">
@@ -25800,7 +25803,7 @@
       </c>
     </row>
     <row r="142" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="3" t="s">
         <v>1304</v>
       </c>
       <c r="B142" t="s">
@@ -25818,7 +25821,7 @@
       <c r="F142" t="s">
         <v>1147</v>
       </c>
-      <c r="G142" s="3"/>
+      <c r="G142" s="2"/>
       <c r="H142">
         <v>2</v>
       </c>
@@ -25950,7 +25953,7 @@
       </c>
     </row>
     <row r="143" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="3" t="s">
         <v>1305</v>
       </c>
       <c r="B143" t="s">
@@ -25968,7 +25971,7 @@
       <c r="F143" t="s">
         <v>210</v>
       </c>
-      <c r="G143" s="3"/>
+      <c r="G143" s="2"/>
       <c r="H143">
         <v>1</v>
       </c>
@@ -26100,7 +26103,7 @@
       </c>
     </row>
     <row r="144" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="3" t="s">
         <v>1306</v>
       </c>
       <c r="B144" t="s">
@@ -26118,7 +26121,7 @@
       <c r="F144" t="s">
         <v>210</v>
       </c>
-      <c r="G144" s="3"/>
+      <c r="G144" s="2"/>
       <c r="H144">
         <v>1</v>
       </c>
@@ -26251,6 +26254,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A144" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -26258,6 +26264,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FBAB5CCC7A94294FA92A219CB40CA5F3" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="01842a807f4e8eff055ae02b636ac752">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f09df0d-5dee-4acc-aa0a-8f807c98dfbe" xmlns:ns3="a390e89a-0ba1-438e-916e-aac2f253f5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b70a434aac71ca444f0392565718366" ns2:_="" ns3:_="">
     <xsd:import namespace="6f09df0d-5dee-4acc-aa0a-8f807c98dfbe"/>
@@ -26492,16 +26507,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E0CF5-3BC0-4CA6-8057-DC3CF18A1C21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D97FDA-F1CE-4F44-A8AB-A17C4863CD7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26518,12 +26532,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258E0CF5-3BC0-4CA6-8057-DC3CF18A1C21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>